--- a/Output_testing/R1_201907/Country/HKD/MN/CZECHIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CZECHIA_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>2144.71481</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>38.33092411129979</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>3115.035411</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>42.66196378010237</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>6882.901627</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>50.86013480407819</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>4798.768765</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>59.99199036207625</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>176.526823277601</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>858.088452</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>15.33598927980299</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>1236.374059</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>16.93275945995856</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1263.595149</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>9.337140511178669</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>608.8069400000001</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>7.611023132273208</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-19.18733673311925</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>271.483211</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.852021494798643</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>418.350477</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>5.729518462017428</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1487.03658</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>10.98822633476459</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>447.710662</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.597071881354295</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-42.89758674303987</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>372.269902</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>6.653308540580744</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>452.633</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>6.199034715139897</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>650.76723</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.808743584833537</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>342.606149</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.283103811691177</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>16.0356327449537</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>4.258527</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.07610954822609778</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>69.247795</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.9483830943653929</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>464.744425</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.434156898628563</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>327.593546</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.095423183890459</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>50.20561885356447</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>90.268507</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.61330321184164</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>167.800676</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.298113959317907</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>695.793922</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>5.141461346760908</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>277.122243</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.464454268442533</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-38.28271205589624</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>361.325434</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>6.457706043507229</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>413.665585</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>5.665356529182922</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>441.434217</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.261909729420096</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>221.698359</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.771570473122416</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-15.16580659706412</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>40.15522</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.7176649703335369</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>36.971928</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.5063489961130823</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>72.58277099999999</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.5363391368303713</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>135.118208</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.689185420059934</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>852.6791530491037</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>172.739234</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>3.087242387018373</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>150.75303</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.064637943725991</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>213.770643</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.579625034518088</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>131.346016</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.642027218198148</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>5.805934189209938</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>140.643987</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.513627437676729</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>91.120454</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.247940069781275</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>132.354854</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.9780156801904105</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>80.50276599999999</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.00640839317301</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>28.39871237582457</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1139.312574</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>20.36210297491423</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1149.716648</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>15.74594299029518</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1228.017764</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>9.07424693879657</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>627.742108</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>7.847741855718573</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-11.30888281888184</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,523 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>2.434504448554612</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0.729382</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>18.83507335246498</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>12.25315622904902</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.376141</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>52.16585525989088</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>206.3653343960034</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>NAILS, SCREWS, NUTS, BOLTS, RIVETS AND THE LIKE, OF IRON, STEEL, COPPER OR ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>2.18947</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>46.37642541416336</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>1.294851</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>33.43736692914362</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.394986</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>37.98710440594925</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.553171</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>20.96924538980315</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-31.56001123405056</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.536255</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>11.35872608917783</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>3.075197283798674</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>11.42227869362262</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>9.810535285864995</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-6.965968200560068</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.867416889849874</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.9667480704160939</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.4626303896617399</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>7.791097156152875</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>2.744729812051639</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>6.940226992250677</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>7.732509281745148</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>5.152897391254244</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-52.12883595461301</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>3.193753604726461</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>2.773301551813089</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>9.512761020881676</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>3.308075009891796</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>3.396052180689984</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>1.081159241905942</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.248440586487319</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>15.01309586170769</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.5357879673397041</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.6328524489810368</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.08862737873344728</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>42.38733252131548</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>0.754572</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>19.4855630790398</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>0.754572</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>20.54788029830116</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.2978553230571623</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>4.686675406057629</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>1.372725</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>29.07647904591403</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>0.536424</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>13.85225490623936</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1816,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>2144.71481</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>38.36329371284314</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>3115.035411</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>42.68460171536412</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>6882.901627</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>50.87393975841631</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>4798.768765</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>60.01178176456061</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>176.526823277601</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>857.9797620000001</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>15.34699599956661</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1236.374059</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>16.94174457640639</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1263.595149</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>9.3396748890151</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>608.8069400000001</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>7.61353401449631</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-19.18733673311925</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>271.483211</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.856118917600409</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>418.350477</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>5.73255874559867</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1487.03658</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>10.99120886643487</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>447.710662</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.598918359553622</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-42.89758674303987</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>372.269902</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>6.658927109696852</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>452.633</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>6.20232414052336</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>650.76723</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.810048820965293</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>342.606149</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.284516810841694</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>16.0356327449537</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>4.258527</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.0761738210242847</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>69.247795</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.9488863397200663</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>464.744425</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.435089031021803</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>327.593546</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.096774267061511</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>50.20561885356447</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>90.268507</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.614665610044832</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>167.800676</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.299333419240177</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>695.793922</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>5.142856892395945</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>277.122243</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.465597194496521</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-38.28271205589624</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>360.531257</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>6.448953697928507</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>413.176693</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>5.661663593453215</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>441.434217</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.262795108805014</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>221.698359</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.772484816294167</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-15.16580659706412</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>40.15522</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.7182710222268821</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>36.971928</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.5066176826614311</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>72.58277099999999</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.5364847152351907</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>135.118208</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.689742683593238</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>852.6791530491037</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>172.609653</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.087531631168685</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>150.484272</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.062050785061371</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>213.486685</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.577954958604844</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>131.210082</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.640868979502517</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>5.938759571178642</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>140.107732</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.506157951208586</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>91.001368</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.246970462973424</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>131.935398</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.9751807963555367</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>80.24396299999999</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.003503905127106</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>28.5563203794672</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>1136.160193</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>20.32291052669121</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1146.720917</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>15.71324853899779</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1225.048916</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>9.054766162750099</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>625.498834</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>7.822277204472702</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-11.43266803081474</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2274,435 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>43.222196</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>3.233686138073584</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>168.508622</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>10.84270982043584</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>459.734049</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>19.06670170267186</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>279.883447</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>18.50407112715493</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>293.0260321773814</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>420.081461</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>31.42856502009752</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>491.082476</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>31.59876759996973</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>588.15518</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>24.39275358510868</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>262.520539</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>17.35614870426778</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-22.97561031170321</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>87.24941699999999</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>6.527600548290089</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>54.276517</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3.492429745790413</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>147.166961</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>6.103503867027574</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>239.061454</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>15.80518675181629</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>309.3630692885676</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>167.308851</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>12.51727959994718</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>100.821051</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>6.487344011301466</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>204.6514</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>8.487574947563175</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>181.153968</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>11.97672082707467</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>61.75657416241642</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>113.918014</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>8.522822457902704</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>181.880935</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>11.70315308895323</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>309.606314</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>12.84040467992781</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>144.017547</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>9.521502474729699</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-17.93669683276637</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>42.225301</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>3.159103033998657</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>43.826476</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.820020459963737</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>3.768518</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.1562929887908946</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>62.970601</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.163206121381282</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>45.030489</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>3.368974312873298</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>42.002864</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>2.702679901917606</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>58.541739</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.427920831830039</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>45.318566</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.996168503829614</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>13.05118155070069</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>GLASSWARE</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>143.93042</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>10.76821279513676</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>140.533556</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>9.042650457031035</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>137.37795</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>5.697520988215016</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>43.220513</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.857458900397652</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-50.18181692018888</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>1.316379</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.09848542921676554</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>6.844981</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.4404412179538014</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>17.754883</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.7363541131295231</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>23.458155</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.550900466906945</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>254.478468423775</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>20.213886</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.512310086114081</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>43.633785</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.807621731796525</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>32.279227</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.338727017806401</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>22.622521</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.495653787841037</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>51.46583778156067</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>252.126689</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>18.86296057834936</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>280.707816</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>18.06218196488662</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>452.151913</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>18.75224527792902</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>208.323333</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>13.7729823346001</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-18.70036519038396</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
